--- a/Repository/BusinessObjects/CustomerLoyaltyHistorical/IIB/CUTOFF/Cutoff Plan for CustomerLoyaltyHistorical v2.3.3.xlsx
+++ b/Repository/BusinessObjects/CustomerLoyaltyHistorical/IIB/CUTOFF/Cutoff Plan for CustomerLoyaltyHistorical v2.3.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Workshop\Repository\BusinessObjects\CustomerLoyaltyHistorical\IIB\CUTOFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBB1F63-8BE7-4998-AECB-1324F53980DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2236BE-3E43-44E8-B9B5-65E6CB098E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26715" yWindow="2325" windowWidth="21600" windowHeight="11385" tabRatio="682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IIB" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Java Prod servers:</t>
   </si>
@@ -147,9 +147,6 @@
     <t>CustomerLoyaltyHistorical</t>
   </si>
   <si>
-    <t>es00ed05, and with 1 GB JVM heap size</t>
-  </si>
-  <si>
     <t>IAUC_C02_PROD_CLMS_AGGREGATE_HISTORICAL</t>
   </si>
   <si>
@@ -163,6 +160,12 @@
   </si>
   <si>
     <t>ESED_CustomerLoyaltyHistorical_UCA_IH_Publisher</t>
+  </si>
+  <si>
+    <t>es00ed05, and with 2 GB JVM heap size</t>
+  </si>
+  <si>
+    <t>Please update es00ed05, and with 2 GB JVM heap size!</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1451,7 +1454,10 @@
       </c>
       <c r="B8" s="76"/>
       <c r="C8" s="16" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:77" ht="15.75" thickBot="1">
@@ -1830,7 +1836,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="29" t="s">
         <v>17</v>
@@ -1919,7 +1925,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>17</v>
@@ -2008,7 +2014,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="61" t="s">
         <v>17</v>
@@ -2099,7 +2105,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>17</v>
@@ -2190,7 +2196,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="32" t="s">
         <v>17</v>
@@ -2339,85 +2345,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Approver_x0020_5 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_3 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_3 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <ApprovalFlag xmlns="ae742731-8854-4d9b-b0f5-7faa02908323">0</ApprovalFlag>
-    <Approval_x0020_1 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_1 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_4 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_4 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <New_x0020_Document_x0028_1_x0029_0 xmlns="bb9d29be-5b8b-43e1-b8be-9648ee6191d1">
-      <Url>https://rxsafeway.sharepoint.com/sites/pwa/25594 Enterprise Data Model Historical Data Load/_layouts/15/wrkstat.aspx?List=bb9d29be-5b8b-43e1-b8be-9648ee6191d1&amp;WorkflowInstanceName=257f9ae3-6168-4a39-ba29-f5d6a9db4160</Url>
-      <Description>Stage 1</Description>
-    </New_x0020_Document_x0028_1_x0029_0>
-    <Approval_x0020_2 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_2 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_Status xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Reviewed xmlns="bb9d29be-5b8b-43e1-b8be-9648ee6191d1">true</Reviewed>
-    <Approval_x0020_5 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_2_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_Count xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_History xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_3_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_4_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Order0 xmlns="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1" xsi:nil="true"/>
-    <Approval_x0020_3_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <WF_x0020_Status xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_5_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Status xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_2_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_5_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approver_x0020_1_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <MediaServiceFastMetadata xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_1_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_4_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_Status_x0020_WF_x0028_1_x0029_ xmlns="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Approval_x0020_Status_x0020_WF_x0028_1_x0029_>
-    <New_x0020_Document_x0028_1_x0029_ xmlns="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </New_x0020_Document_x0028_1_x0029_>
-    <MediaServiceMetadata xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <New_x0020_Document xmlns="ae742731-8854-4d9b-b0f5-7faa02908323">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </New_x0020_Document>
-    <Project_x0020_Document_x0020_Approval xmlns="ae742731-8854-4d9b-b0f5-7faa02908323">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Project_x0020_Document_x0020_Approval>
-    <Approval_x0020_Count xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
-    <Approval_x0020_Status_x0020_WF_x0028_1_x0029_0 xmlns="bb9d29be-5b8b-43e1-b8be-9648ee6191d1">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Approval_x0020_Status_x0020_WF_x0028_1_x0029_0>
-    <SharedWithUsers xmlns="31a3bc9e-36c4-4343-a4da-a1c5d642772b">
-      <UserInfo>
-        <DisplayName>Sanket Soni</DisplayName>
-        <AccountId>11243</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Josa Pereira</DisplayName>
-        <AccountId>395</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004AA21B6B1247AA45A0ADB4B051724754" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0b324abea7e765b4166bddc9560967b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1" xmlns:ns3="ae742731-8854-4d9b-b0f5-7faa02908323" xmlns:ns4="31a3bc9e-36c4-4343-a4da-a1c5d642772b" xmlns:ns5="bb9d29be-5b8b-43e1-b8be-9648ee6191d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="087e36c7460f59a661d5c3a7c39d5c2d" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1"/>
@@ -2930,6 +2857,85 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Approver_x0020_5 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_3 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_3 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <ApprovalFlag xmlns="ae742731-8854-4d9b-b0f5-7faa02908323">0</ApprovalFlag>
+    <Approval_x0020_1 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_1 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_4 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_4 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <New_x0020_Document_x0028_1_x0029_0 xmlns="bb9d29be-5b8b-43e1-b8be-9648ee6191d1">
+      <Url>https://rxsafeway.sharepoint.com/sites/pwa/25594 Enterprise Data Model Historical Data Load/_layouts/15/wrkstat.aspx?List=bb9d29be-5b8b-43e1-b8be-9648ee6191d1&amp;WorkflowInstanceName=257f9ae3-6168-4a39-ba29-f5d6a9db4160</Url>
+      <Description>Stage 1</Description>
+    </New_x0020_Document_x0028_1_x0029_0>
+    <Approval_x0020_2 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_2 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_Status xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Reviewed xmlns="bb9d29be-5b8b-43e1-b8be-9648ee6191d1">true</Reviewed>
+    <Approval_x0020_5 xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_2_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_Count xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_History xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_3_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_4_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Order0 xmlns="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1" xsi:nil="true"/>
+    <Approval_x0020_3_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <WF_x0020_Status xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_5_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Status xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_2_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_5_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approver_x0020_1_x0020_Comments xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <MediaServiceFastMetadata xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_1_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_4_x0020_Date xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_Status_x0020_WF_x0028_1_x0029_ xmlns="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Approval_x0020_Status_x0020_WF_x0028_1_x0029_>
+    <New_x0020_Document_x0028_1_x0029_ xmlns="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </New_x0020_Document_x0028_1_x0029_>
+    <MediaServiceMetadata xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <New_x0020_Document xmlns="ae742731-8854-4d9b-b0f5-7faa02908323">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </New_x0020_Document>
+    <Project_x0020_Document_x0020_Approval xmlns="ae742731-8854-4d9b-b0f5-7faa02908323">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Project_x0020_Document_x0020_Approval>
+    <Approval_x0020_Count xmlns="ae742731-8854-4d9b-b0f5-7faa02908323" xsi:nil="true"/>
+    <Approval_x0020_Status_x0020_WF_x0028_1_x0029_0 xmlns="bb9d29be-5b8b-43e1-b8be-9648ee6191d1">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Approval_x0020_Status_x0020_WF_x0028_1_x0029_0>
+    <SharedWithUsers xmlns="31a3bc9e-36c4-4343-a4da-a1c5d642772b">
+      <UserInfo>
+        <DisplayName>Sanket Soni</DisplayName>
+        <AccountId>11243</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Josa Pereira</DisplayName>
+        <AccountId>395</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2940,27 +2946,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CCE5D2A-DCDF-4C2E-9760-07A77D3BE70A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C9B9F11-E41F-4C2B-BEC3-893E7A418ABA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ae742731-8854-4d9b-b0f5-7faa02908323"/>
-    <ds:schemaRef ds:uri="bb9d29be-5b8b-43e1-b8be-9648ee6191d1"/>
-    <ds:schemaRef ds:uri="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1"/>
-    <ds:schemaRef ds:uri="31a3bc9e-36c4-4343-a4da-a1c5d642772b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B105272E-F293-4ED7-A0FA-5CBDF467BB3A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2981,6 +2966,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C9B9F11-E41F-4C2B-BEC3-893E7A418ABA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ae742731-8854-4d9b-b0f5-7faa02908323"/>
+    <ds:schemaRef ds:uri="bb9d29be-5b8b-43e1-b8be-9648ee6191d1"/>
+    <ds:schemaRef ds:uri="BB9D29BE-5B8B-43E1-B8BE-9648EE6191D1"/>
+    <ds:schemaRef ds:uri="31a3bc9e-36c4-4343-a4da-a1c5d642772b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CCE5D2A-DCDF-4C2E-9760-07A77D3BE70A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA1A481A-EBAE-4923-8F42-B73E6D0F384E}">
   <ds:schemaRefs>
